--- a/Einkaufsliste.xlsx
+++ b/Einkaufsliste.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A59008A-E7C6-4037-9C2D-D67C3511D91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E79F74C-6F6C-4A32-9E5B-D1ABC6B7E4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{444CD573-9474-4FB8-9721-203F73B68DDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{444CD573-9474-4FB8-9721-203F73B68DDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>Motor:</t>
   </si>
@@ -188,6 +209,42 @@
   </si>
   <si>
     <t>TRX7756</t>
+  </si>
+  <si>
+    <t>Preis:</t>
+  </si>
+  <si>
+    <t>Raspberry Pi</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 4 B 4GB</t>
+  </si>
+  <si>
+    <t>Ultraschallsensor</t>
+  </si>
+  <si>
+    <t>JSN-SR04T</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Buyzero</t>
+  </si>
+  <si>
+    <t>Octosonar:</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>JLCPCB</t>
+  </si>
+  <si>
+    <t>SMDs</t>
+  </si>
+  <si>
+    <t>Mouser.at</t>
   </si>
 </sst>
 </file>
@@ -566,21 +623,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9A2BD6-0D2F-4F04-93D0-99E231265F25}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -594,19 +652,22 @@
       <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -619,8 +680,15 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>292.39</v>
+      </c>
+      <c r="H4" cm="1">
+        <f t="array" ref="H4">MMULT(F4,G4)</f>
+        <v>292.39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -639,8 +707,15 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>269</v>
+      </c>
+      <c r="H5" cm="1">
+        <f t="array" ref="H5">MMULT(F5,G5)</f>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -653,8 +728,15 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>119.99</v>
+      </c>
+      <c r="H6" cm="1">
+        <f t="array" ref="H6">MMULT(F6,G6)</f>
+        <v>119.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -662,7 +744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -670,270 +752,504 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>78.39</v>
+      </c>
+      <c r="H9" cm="1">
+        <f t="array" ref="H9">MMULT(F9,G9)</f>
+        <v>78.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="H10" cm="1">
+        <f t="array" ref="H10">MMULT(F10,G10)</f>
+        <v>79.599999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.84</v>
+      </c>
+      <c r="H11" cm="1">
+        <f t="array" ref="H11">MMULT(F11,G11)</f>
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>62.35</v>
+      </c>
+      <c r="H12" cm="1">
+        <f t="array" ref="H12">MMULT(F12,G12)</f>
+        <v>62.35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11">
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6.95</v>
+      </c>
+      <c r="H15" cm="1">
+        <f t="array" ref="H15">MMULT(F15,G15)</f>
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="G16">
+        <v>11.95</v>
+      </c>
+      <c r="H16" cm="1">
+        <f t="array" ref="H16">MMULT(F16,G16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>18.95</v>
+      </c>
+      <c r="H17" cm="1">
+        <f t="array" ref="H17">MMULT(F17,G17)</f>
+        <v>18.95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>11.95</v>
+      </c>
+      <c r="H18" cm="1">
+        <f t="array" ref="H18">MMULT(F18,G18)</f>
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>11.95</v>
+      </c>
+      <c r="H19" cm="1">
+        <f t="array" ref="H19">MMULT(F19,G19)</f>
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>6.95</v>
+      </c>
+      <c r="H20" cm="1">
+        <f t="array" ref="H20">MMULT(F20,G20)</f>
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="C21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4.95</v>
+      </c>
+      <c r="H21" cm="1">
+        <f t="array" ref="H21">MMULT(F21,G21)</f>
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="C22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.95</v>
+      </c>
+      <c r="H22" cm="1">
+        <f t="array" ref="H22">MMULT(F22,G22)</f>
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="C23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.95</v>
+      </c>
+      <c r="H23" cm="1">
+        <f t="array" ref="H23">MMULT(F23,G23)</f>
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="C24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4.95</v>
+      </c>
+      <c r="H24" cm="1">
+        <f t="array" ref="H24">MMULT(F24,G24)</f>
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>34</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B25" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="C25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>68.95</v>
+      </c>
+      <c r="H25" cm="1">
+        <f t="array" ref="H25">MMULT(F25,G25)</f>
+        <v>68.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B26" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="C26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>13.95</v>
+      </c>
+      <c r="H26" cm="1">
+        <f t="array" ref="H26">MMULT(F26,G26)</f>
+        <v>13.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>37</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B27" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="C27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>54.95</v>
+      </c>
+      <c r="H27" cm="1">
+        <f t="array" ref="H27">MMULT(F27,G27)</f>
+        <v>54.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B28" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="C28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>59.95</v>
+      </c>
+      <c r="H28" cm="1">
+        <f t="array" ref="H28">MMULT(F28,G28)</f>
+        <v>59.95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>40</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B29" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25">
+      <c r="C29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="G29">
+        <v>13.95</v>
+      </c>
+      <c r="H29" cm="1">
+        <f t="array" ref="H29">MMULT(F29,G29)</f>
+        <v>55.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B30" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26">
+      <c r="C30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+      <c r="G30">
+        <v>17.95</v>
+      </c>
+      <c r="H30" cm="1">
+        <f t="array" ref="H30">MMULT(F30,G30)</f>
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>46</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>50</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F31">
         <v>2</v>
+      </c>
+      <c r="G31">
+        <v>4.95</v>
+      </c>
+      <c r="H31" cm="1">
+        <f t="array" ref="H31">MMULT(F31,G31)</f>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>16.95</v>
+      </c>
+      <c r="H32" cm="1">
+        <f t="array" ref="H32">MMULT(F32,G32)</f>
+        <v>67.8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>11.95</v>
+      </c>
+      <c r="H33" cm="1">
+        <f t="array" ref="H33">MMULT(F33,G33)</f>
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="H34" cm="1">
+        <f t="array" ref="H34">MMULT(F34,G34)</f>
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>3.95</v>
+      </c>
+      <c r="H35" cm="1">
+        <f t="array" ref="H35">MMULT(F35,G35)</f>
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <f>SUM(H4:H37)</f>
+        <v>1436.9100000000008</v>
       </c>
     </row>
   </sheetData>
@@ -944,29 +1260,33 @@
     <hyperlink ref="D5" r:id="rId3" xr:uid="{5E49E5E5-4219-403E-8251-B32705269129}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{033A9D7B-20F6-428C-88AD-17720B8E8149}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{46E74C03-2A9A-45F1-9106-82FD86535FB6}"/>
-    <hyperlink ref="C12" r:id="rId6" xr:uid="{85DBDFA2-9E61-4092-9556-7EF947117324}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{3D2954CF-1332-4BB1-9690-A7D912F4CE9E}"/>
-    <hyperlink ref="C13" r:id="rId8" xr:uid="{4D92E035-8E80-4DE5-AD7D-448501B51BCF}"/>
-    <hyperlink ref="C14" r:id="rId9" xr:uid="{8DE8F71D-5D02-4AF0-9D95-1901F45B6A83}"/>
-    <hyperlink ref="C15" r:id="rId10" xr:uid="{7A0F0613-893F-404D-B38E-F8C1ED1F13F7}"/>
-    <hyperlink ref="C16" r:id="rId11" xr:uid="{D02A0725-72D9-4164-87E7-A315A11B23A9}"/>
-    <hyperlink ref="C17" r:id="rId12" xr:uid="{BEE727C2-86D0-4FC9-B77E-623BEC77A5BC}"/>
-    <hyperlink ref="C18" r:id="rId13" xr:uid="{4122846D-DBB2-45E2-8DB8-3DBBA5082890}"/>
-    <hyperlink ref="C19" r:id="rId14" xr:uid="{2E6AC47C-173D-488F-928F-99722E294D9B}"/>
-    <hyperlink ref="C20" r:id="rId15" xr:uid="{33F18E1E-4380-4402-B6A1-B262BEEA55FC}"/>
-    <hyperlink ref="C21" r:id="rId16" xr:uid="{4E08E2C0-4903-4953-AC7F-2EA4ED13A7AD}"/>
-    <hyperlink ref="C23" r:id="rId17" xr:uid="{F3574785-446C-4504-98C1-655B052C860C}"/>
-    <hyperlink ref="C24" r:id="rId18" xr:uid="{A1EE711F-0C12-4DB6-ADAC-602F10032EF0}"/>
-    <hyperlink ref="C25" r:id="rId19" xr:uid="{977FC87A-5068-4D68-A6BF-9B2BE099F04F}"/>
-    <hyperlink ref="C22" r:id="rId20" xr:uid="{0BCFC54D-314C-413D-8DD2-DC84A0453443}"/>
-    <hyperlink ref="C26" r:id="rId21" xr:uid="{BCCFC410-225E-4470-BA1C-9BFE3DA8D6E4}"/>
-    <hyperlink ref="C27" r:id="rId22" xr:uid="{4F4E1C35-3FC2-4ADD-8F30-3BB651034897}"/>
-    <hyperlink ref="C28" r:id="rId23" xr:uid="{BCD87646-AE5D-4F37-A328-B2112A0FE6DA}"/>
-    <hyperlink ref="C29" r:id="rId24" xr:uid="{66D536A6-362E-4443-A368-1A34A657C27A}"/>
-    <hyperlink ref="C30" r:id="rId25" xr:uid="{DFD609F2-E8F8-4363-93CC-1E47C98EB178}"/>
-    <hyperlink ref="C31" r:id="rId26" xr:uid="{F20FE97D-8F33-4E2C-83E4-D4557C5AC6F3}"/>
+    <hyperlink ref="C16" r:id="rId6" xr:uid="{85DBDFA2-9E61-4092-9556-7EF947117324}"/>
+    <hyperlink ref="C15" r:id="rId7" xr:uid="{3D2954CF-1332-4BB1-9690-A7D912F4CE9E}"/>
+    <hyperlink ref="C17" r:id="rId8" xr:uid="{4D92E035-8E80-4DE5-AD7D-448501B51BCF}"/>
+    <hyperlink ref="C18" r:id="rId9" xr:uid="{8DE8F71D-5D02-4AF0-9D95-1901F45B6A83}"/>
+    <hyperlink ref="C19" r:id="rId10" xr:uid="{7A0F0613-893F-404D-B38E-F8C1ED1F13F7}"/>
+    <hyperlink ref="C20" r:id="rId11" xr:uid="{D02A0725-72D9-4164-87E7-A315A11B23A9}"/>
+    <hyperlink ref="C21" r:id="rId12" xr:uid="{BEE727C2-86D0-4FC9-B77E-623BEC77A5BC}"/>
+    <hyperlink ref="C22" r:id="rId13" xr:uid="{4122846D-DBB2-45E2-8DB8-3DBBA5082890}"/>
+    <hyperlink ref="C23" r:id="rId14" xr:uid="{2E6AC47C-173D-488F-928F-99722E294D9B}"/>
+    <hyperlink ref="C24" r:id="rId15" xr:uid="{33F18E1E-4380-4402-B6A1-B262BEEA55FC}"/>
+    <hyperlink ref="C25" r:id="rId16" xr:uid="{4E08E2C0-4903-4953-AC7F-2EA4ED13A7AD}"/>
+    <hyperlink ref="C27" r:id="rId17" xr:uid="{F3574785-446C-4504-98C1-655B052C860C}"/>
+    <hyperlink ref="C28" r:id="rId18" xr:uid="{A1EE711F-0C12-4DB6-ADAC-602F10032EF0}"/>
+    <hyperlink ref="C29" r:id="rId19" xr:uid="{977FC87A-5068-4D68-A6BF-9B2BE099F04F}"/>
+    <hyperlink ref="C26" r:id="rId20" xr:uid="{0BCFC54D-314C-413D-8DD2-DC84A0453443}"/>
+    <hyperlink ref="C30" r:id="rId21" xr:uid="{BCCFC410-225E-4470-BA1C-9BFE3DA8D6E4}"/>
+    <hyperlink ref="C31" r:id="rId22" xr:uid="{4F4E1C35-3FC2-4ADD-8F30-3BB651034897}"/>
+    <hyperlink ref="C32" r:id="rId23" xr:uid="{BCD87646-AE5D-4F37-A328-B2112A0FE6DA}"/>
+    <hyperlink ref="C33" r:id="rId24" xr:uid="{66D536A6-362E-4443-A368-1A34A657C27A}"/>
+    <hyperlink ref="C34" r:id="rId25" xr:uid="{DFD609F2-E8F8-4363-93CC-1E47C98EB178}"/>
+    <hyperlink ref="C35" r:id="rId26" xr:uid="{F20FE97D-8F33-4E2C-83E4-D4557C5AC6F3}"/>
+    <hyperlink ref="C10" r:id="rId27" xr:uid="{91CCFE86-ED42-472F-8EFD-CA9BE020B2EC}"/>
+    <hyperlink ref="C9" r:id="rId28" xr:uid="{CD72251B-47A8-45E6-84D9-994CA884BB54}"/>
+    <hyperlink ref="C11" r:id="rId29" xr:uid="{BB705D5A-BC91-41EF-96BE-644749A9AE29}"/>
+    <hyperlink ref="C12" r:id="rId30" xr:uid="{1ECB1264-4DC1-40ED-85DD-614143E4155E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId31"/>
 </worksheet>
 </file>
--- a/Einkaufsliste.xlsx
+++ b/Einkaufsliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E79F74C-6F6C-4A32-9E5B-D1ABC6B7E4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E73031A-56F5-49CF-BD32-292609A75061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{444CD573-9474-4FB8-9721-203F73B68DDD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{444CD573-9474-4FB8-9721-203F73B68DDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
     <t>Motor:</t>
   </si>
@@ -245,6 +245,18 @@
   </si>
   <si>
     <t>Mouser.at</t>
+  </si>
+  <si>
+    <t>TRX7761R</t>
+  </si>
+  <si>
+    <t>Federn</t>
+  </si>
+  <si>
+    <t>TRX7858</t>
+  </si>
+  <si>
+    <t>Dämpfer</t>
   </si>
 </sst>
 </file>
@@ -623,22 +635,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9A2BD6-0D2F-4F04-93D0-99E231265F25}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -656,18 +668,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -688,7 +700,7 @@
         <v>292.39</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -715,7 +727,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -736,7 +748,7 @@
         <v>119.99</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -744,7 +756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -752,7 +764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -773,7 +785,7 @@
         <v>78.39</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -794,7 +806,7 @@
         <v>79.599999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -815,7 +827,7 @@
         <v>5.84</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>61</v>
       </c>
@@ -833,12 +845,12 @@
         <v>62.35</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -859,7 +871,7 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -880,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -901,7 +913,7 @@
         <v>18.95</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -922,7 +934,7 @@
         <v>11.95</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>33</v>
       </c>
@@ -940,7 +952,7 @@
         <v>11.95</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>27</v>
       </c>
@@ -958,7 +970,7 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>28</v>
       </c>
@@ -976,7 +988,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>30</v>
       </c>
@@ -994,7 +1006,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>31</v>
       </c>
@@ -1012,7 +1024,7 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>32</v>
       </c>
@@ -1030,7 +1042,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -1051,7 +1063,7 @@
         <v>68.95</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1072,7 +1084,7 @@
         <v>13.95</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1093,7 +1105,7 @@
         <v>54.95</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1114,7 +1126,7 @@
         <v>59.95</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -1135,7 +1147,7 @@
         <v>55.8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1156,7 +1168,7 @@
         <v>71.8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>46</v>
       </c>
@@ -1174,7 +1186,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>47</v>
       </c>
@@ -1192,7 +1204,7 @@
         <v>67.8</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>48</v>
       </c>
@@ -1210,7 +1222,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>49</v>
       </c>
@@ -1228,7 +1240,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>50</v>
       </c>
@@ -1246,10 +1258,52 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H38">
-        <f>SUM(H4:H37)</f>
-        <v>1436.9100000000008</v>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>74.95</v>
+      </c>
+      <c r="H37" cm="1">
+        <f t="array" ref="H37">MMULT(F37,G37)</f>
+        <v>149.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>17.95</v>
+      </c>
+      <c r="H38" cm="1">
+        <f t="array" ref="H38">MMULT(F38,G38)</f>
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H40">
+        <f>SUM(H4:H39)</f>
+        <v>1622.7100000000009</v>
       </c>
     </row>
   </sheetData>
@@ -1285,8 +1339,10 @@
     <hyperlink ref="C9" r:id="rId28" xr:uid="{CD72251B-47A8-45E6-84D9-994CA884BB54}"/>
     <hyperlink ref="C11" r:id="rId29" xr:uid="{BB705D5A-BC91-41EF-96BE-644749A9AE29}"/>
     <hyperlink ref="C12" r:id="rId30" xr:uid="{1ECB1264-4DC1-40ED-85DD-614143E4155E}"/>
+    <hyperlink ref="C37" r:id="rId31" xr:uid="{8F921930-28AE-447C-B607-7ED105D8654B}"/>
+    <hyperlink ref="C38" r:id="rId32" xr:uid="{C61C8D99-24C5-406D-86A8-2F4CBD6E2055}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId33"/>
 </worksheet>
 </file>
--- a/Einkaufsliste.xlsx
+++ b/Einkaufsliste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A6002B-4A65-4052-826C-AC2A8B75563F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA9A33F-7F65-40F0-BD4C-59458D880393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{444CD573-9474-4FB8-9721-203F73B68DDD}"/>
   </bookViews>
@@ -56,14 +56,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
   <si>
     <t>Motor:</t>
   </si>
   <si>
-    <t>Castle 2028 800 KV</t>
-  </si>
-  <si>
     <t>Teil:</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>ESC:</t>
   </si>
   <si>
-    <t>Modellbau Metz</t>
-  </si>
-  <si>
     <t>Servo:</t>
   </si>
   <si>
@@ -281,6 +275,15 @@
   </si>
   <si>
     <t>15A 200W</t>
+  </si>
+  <si>
+    <t>TPPower 5860-Sensor</t>
+  </si>
+  <si>
+    <t>TPPower</t>
+  </si>
+  <si>
+    <t>Gekauft:</t>
   </si>
 </sst>
 </file>
@@ -659,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9A2BD6-0D2F-4F04-93D0-99E231265F25}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,66 +675,69 @@
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>292.39</v>
+        <v>346.1</v>
       </c>
       <c r="F4" cm="1">
         <f t="array" ref="F4">MMULT(D4,E4)</f>
-        <v>292.39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>346.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -744,15 +750,15 @@
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -765,15 +771,15 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -786,31 +792,31 @@
         <v>119.99</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -823,15 +829,15 @@
         <v>78.39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -844,15 +850,15 @@
         <v>79.599999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -865,12 +871,12 @@
         <v>5.84</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -883,15 +889,15 @@
         <v>62.35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
         <v>67</v>
       </c>
-      <c r="B14" t="s">
-        <v>69</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -904,15 +910,15 @@
         <v>23.53</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -925,15 +931,15 @@
         <v>25.18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -948,18 +954,18 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -974,13 +980,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -995,13 +1001,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1016,13 +1022,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1037,10 +1043,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1055,10 +1061,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1073,10 +1079,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1091,10 +1097,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1109,10 +1115,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1127,10 +1133,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1145,13 +1151,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1166,13 +1172,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1187,13 +1193,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1208,13 +1214,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1229,13 +1235,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D33">
         <v>4</v>
@@ -1250,13 +1256,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D34">
         <v>4</v>
@@ -1271,10 +1277,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -1289,10 +1295,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -1307,10 +1313,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -1325,10 +1331,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -1343,10 +1349,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -1361,13 +1367,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -1382,13 +1388,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -1404,46 +1410,46 @@
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F44">
         <f>SUM(F4:F43)</f>
-        <v>1795.620000000001</v>
+        <v>1849.3300000000011</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{8825BE40-F0D3-4A7E-99C0-AEC86746F4F5}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{46E74C03-2A9A-45F1-9106-82FD86535FB6}"/>
-    <hyperlink ref="C20" r:id="rId3" xr:uid="{85DBDFA2-9E61-4092-9556-7EF947117324}"/>
-    <hyperlink ref="C19" r:id="rId4" xr:uid="{3D2954CF-1332-4BB1-9690-A7D912F4CE9E}"/>
-    <hyperlink ref="C21" r:id="rId5" xr:uid="{4D92E035-8E80-4DE5-AD7D-448501B51BCF}"/>
-    <hyperlink ref="C22" r:id="rId6" xr:uid="{8DE8F71D-5D02-4AF0-9D95-1901F45B6A83}"/>
-    <hyperlink ref="C23" r:id="rId7" xr:uid="{7A0F0613-893F-404D-B38E-F8C1ED1F13F7}"/>
-    <hyperlink ref="C24" r:id="rId8" xr:uid="{D02A0725-72D9-4164-87E7-A315A11B23A9}"/>
-    <hyperlink ref="C25" r:id="rId9" xr:uid="{BEE727C2-86D0-4FC9-B77E-623BEC77A5BC}"/>
-    <hyperlink ref="C26" r:id="rId10" xr:uid="{4122846D-DBB2-45E2-8DB8-3DBBA5082890}"/>
-    <hyperlink ref="C27" r:id="rId11" xr:uid="{2E6AC47C-173D-488F-928F-99722E294D9B}"/>
-    <hyperlink ref="C28" r:id="rId12" xr:uid="{33F18E1E-4380-4402-B6A1-B262BEEA55FC}"/>
-    <hyperlink ref="C29" r:id="rId13" xr:uid="{4E08E2C0-4903-4953-AC7F-2EA4ED13A7AD}"/>
-    <hyperlink ref="C31" r:id="rId14" xr:uid="{F3574785-446C-4504-98C1-655B052C860C}"/>
-    <hyperlink ref="C32" r:id="rId15" xr:uid="{A1EE711F-0C12-4DB6-ADAC-602F10032EF0}"/>
-    <hyperlink ref="C33" r:id="rId16" xr:uid="{977FC87A-5068-4D68-A6BF-9B2BE099F04F}"/>
-    <hyperlink ref="C30" r:id="rId17" xr:uid="{0BCFC54D-314C-413D-8DD2-DC84A0453443}"/>
-    <hyperlink ref="C34" r:id="rId18" xr:uid="{BCCFC410-225E-4470-BA1C-9BFE3DA8D6E4}"/>
-    <hyperlink ref="C35" r:id="rId19" xr:uid="{4F4E1C35-3FC2-4ADD-8F30-3BB651034897}"/>
-    <hyperlink ref="C36" r:id="rId20" xr:uid="{BCD87646-AE5D-4F37-A328-B2112A0FE6DA}"/>
-    <hyperlink ref="C37" r:id="rId21" xr:uid="{66D536A6-362E-4443-A368-1A34A657C27A}"/>
-    <hyperlink ref="C38" r:id="rId22" xr:uid="{DFD609F2-E8F8-4363-93CC-1E47C98EB178}"/>
-    <hyperlink ref="C39" r:id="rId23" xr:uid="{F20FE97D-8F33-4E2C-83E4-D4557C5AC6F3}"/>
-    <hyperlink ref="C11" r:id="rId24" xr:uid="{91CCFE86-ED42-472F-8EFD-CA9BE020B2EC}"/>
-    <hyperlink ref="C10" r:id="rId25" xr:uid="{CD72251B-47A8-45E6-84D9-994CA884BB54}"/>
-    <hyperlink ref="C12" r:id="rId26" xr:uid="{BB705D5A-BC91-41EF-96BE-644749A9AE29}"/>
-    <hyperlink ref="C13" r:id="rId27" xr:uid="{1ECB1264-4DC1-40ED-85DD-614143E4155E}"/>
-    <hyperlink ref="C41" r:id="rId28" xr:uid="{8F921930-28AE-447C-B607-7ED105D8654B}"/>
-    <hyperlink ref="C42" r:id="rId29" xr:uid="{C61C8D99-24C5-406D-86A8-2F4CBD6E2055}"/>
-    <hyperlink ref="C5" r:id="rId30" xr:uid="{67D7384C-E530-4600-B22C-66F029B7FB9A}"/>
-    <hyperlink ref="C6" r:id="rId31" xr:uid="{6F5E5C9A-23C3-41B4-9290-E52D9850CC93}"/>
-    <hyperlink ref="C14" r:id="rId32" xr:uid="{5F000A0D-9238-4634-A225-9AE826D40A76}"/>
-    <hyperlink ref="C15" r:id="rId33" xr:uid="{FF6A06B5-21E5-47B9-8E19-C441394CFA36}"/>
-    <hyperlink ref="C16" r:id="rId34" xr:uid="{C3B39697-F125-40FF-9C0D-46E2069F9ACF}"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{46E74C03-2A9A-45F1-9106-82FD86535FB6}"/>
+    <hyperlink ref="C20" r:id="rId2" xr:uid="{85DBDFA2-9E61-4092-9556-7EF947117324}"/>
+    <hyperlink ref="C19" r:id="rId3" xr:uid="{3D2954CF-1332-4BB1-9690-A7D912F4CE9E}"/>
+    <hyperlink ref="C21" r:id="rId4" xr:uid="{4D92E035-8E80-4DE5-AD7D-448501B51BCF}"/>
+    <hyperlink ref="C22" r:id="rId5" xr:uid="{8DE8F71D-5D02-4AF0-9D95-1901F45B6A83}"/>
+    <hyperlink ref="C23" r:id="rId6" xr:uid="{7A0F0613-893F-404D-B38E-F8C1ED1F13F7}"/>
+    <hyperlink ref="C24" r:id="rId7" xr:uid="{D02A0725-72D9-4164-87E7-A315A11B23A9}"/>
+    <hyperlink ref="C25" r:id="rId8" xr:uid="{BEE727C2-86D0-4FC9-B77E-623BEC77A5BC}"/>
+    <hyperlink ref="C26" r:id="rId9" xr:uid="{4122846D-DBB2-45E2-8DB8-3DBBA5082890}"/>
+    <hyperlink ref="C27" r:id="rId10" xr:uid="{2E6AC47C-173D-488F-928F-99722E294D9B}"/>
+    <hyperlink ref="C28" r:id="rId11" xr:uid="{33F18E1E-4380-4402-B6A1-B262BEEA55FC}"/>
+    <hyperlink ref="C29" r:id="rId12" xr:uid="{4E08E2C0-4903-4953-AC7F-2EA4ED13A7AD}"/>
+    <hyperlink ref="C31" r:id="rId13" xr:uid="{F3574785-446C-4504-98C1-655B052C860C}"/>
+    <hyperlink ref="C32" r:id="rId14" xr:uid="{A1EE711F-0C12-4DB6-ADAC-602F10032EF0}"/>
+    <hyperlink ref="C33" r:id="rId15" xr:uid="{977FC87A-5068-4D68-A6BF-9B2BE099F04F}"/>
+    <hyperlink ref="C30" r:id="rId16" xr:uid="{0BCFC54D-314C-413D-8DD2-DC84A0453443}"/>
+    <hyperlink ref="C34" r:id="rId17" xr:uid="{BCCFC410-225E-4470-BA1C-9BFE3DA8D6E4}"/>
+    <hyperlink ref="C35" r:id="rId18" xr:uid="{4F4E1C35-3FC2-4ADD-8F30-3BB651034897}"/>
+    <hyperlink ref="C36" r:id="rId19" xr:uid="{BCD87646-AE5D-4F37-A328-B2112A0FE6DA}"/>
+    <hyperlink ref="C37" r:id="rId20" xr:uid="{66D536A6-362E-4443-A368-1A34A657C27A}"/>
+    <hyperlink ref="C38" r:id="rId21" xr:uid="{DFD609F2-E8F8-4363-93CC-1E47C98EB178}"/>
+    <hyperlink ref="C39" r:id="rId22" xr:uid="{F20FE97D-8F33-4E2C-83E4-D4557C5AC6F3}"/>
+    <hyperlink ref="C11" r:id="rId23" xr:uid="{91CCFE86-ED42-472F-8EFD-CA9BE020B2EC}"/>
+    <hyperlink ref="C10" r:id="rId24" xr:uid="{CD72251B-47A8-45E6-84D9-994CA884BB54}"/>
+    <hyperlink ref="C12" r:id="rId25" xr:uid="{BB705D5A-BC91-41EF-96BE-644749A9AE29}"/>
+    <hyperlink ref="C13" r:id="rId26" xr:uid="{1ECB1264-4DC1-40ED-85DD-614143E4155E}"/>
+    <hyperlink ref="C41" r:id="rId27" xr:uid="{8F921930-28AE-447C-B607-7ED105D8654B}"/>
+    <hyperlink ref="C42" r:id="rId28" xr:uid="{C61C8D99-24C5-406D-86A8-2F4CBD6E2055}"/>
+    <hyperlink ref="C5" r:id="rId29" xr:uid="{67D7384C-E530-4600-B22C-66F029B7FB9A}"/>
+    <hyperlink ref="C6" r:id="rId30" xr:uid="{6F5E5C9A-23C3-41B4-9290-E52D9850CC93}"/>
+    <hyperlink ref="C14" r:id="rId31" xr:uid="{5F000A0D-9238-4634-A225-9AE826D40A76}"/>
+    <hyperlink ref="C15" r:id="rId32" xr:uid="{FF6A06B5-21E5-47B9-8E19-C441394CFA36}"/>
+    <hyperlink ref="C16" r:id="rId33" xr:uid="{C3B39697-F125-40FF-9C0D-46E2069F9ACF}"/>
+    <hyperlink ref="C4" r:id="rId34" xr:uid="{052800D1-DC31-4B3E-BD7F-1F5925EAF95F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId35"/>

--- a/Einkaufsliste.xlsx
+++ b/Einkaufsliste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA9A33F-7F65-40F0-BD4C-59458D880393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5330DB49-3DFD-47E9-B941-A732B49F9503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{444CD573-9474-4FB8-9721-203F73B68DDD}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="81">
   <si>
     <t>Motor:</t>
   </si>
@@ -284,6 +284,21 @@
   </si>
   <si>
     <t>Gekauft:</t>
+  </si>
+  <si>
+    <t>plastik von philipp</t>
+  </si>
+  <si>
+    <t>philipp</t>
+  </si>
+  <si>
+    <t>schraubenking</t>
+  </si>
+  <si>
+    <t>bearings fehlen</t>
+  </si>
+  <si>
+    <t>innneleben und abdeckung</t>
   </si>
 </sst>
 </file>
@@ -664,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9A2BD6-0D2F-4F04-93D0-99E231265F25}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -673,6 +688,7 @@
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="2" max="2" width="19.77734375" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -952,12 +968,12 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -978,7 +994,7 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -999,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1019,8 +1035,11 @@
         <f t="array" ref="F21">MMULT(D21,E21)</f>
         <v>18.95</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1040,8 +1059,11 @@
         <f t="array" ref="F22">MMULT(D22,E22)</f>
         <v>11.95</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>27</v>
       </c>
@@ -1058,8 +1080,11 @@
         <f t="array" ref="F23">MMULT(D23,E23)</f>
         <v>11.95</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -1077,7 +1102,7 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -1095,7 +1120,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>24</v>
       </c>
@@ -1112,8 +1137,11 @@
         <f t="array" ref="F26">MMULT(D26,E26)</f>
         <v>2.95</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -1130,8 +1158,11 @@
         <f t="array" ref="F27">MMULT(D27,E27)</f>
         <v>6.95</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>26</v>
       </c>
@@ -1148,8 +1179,11 @@
         <f t="array" ref="F28">MMULT(D28,E28)</f>
         <v>4.95</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1169,8 +1203,11 @@
         <f t="array" ref="F29">MMULT(D29,E29)</f>
         <v>68.95</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1191,7 +1228,7 @@
         <v>13.95</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1211,8 +1248,11 @@
         <f t="array" ref="F31">MMULT(D31,E31)</f>
         <v>54.95</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1232,8 +1272,11 @@
         <f t="array" ref="F32">MMULT(D32,E32)</f>
         <v>59.95</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1253,8 +1296,11 @@
         <f t="array" ref="F33">MMULT(D33,E33)</f>
         <v>55.8</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1274,8 +1320,11 @@
         <f t="array" ref="F34">MMULT(D34,E34)</f>
         <v>71.8</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>40</v>
       </c>
@@ -1292,8 +1341,11 @@
         <f t="array" ref="F35">MMULT(D35,E35)</f>
         <v>9.9</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>41</v>
       </c>
@@ -1310,8 +1362,11 @@
         <f t="array" ref="F36">MMULT(D36,E36)</f>
         <v>67.8</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>42</v>
       </c>
@@ -1329,7 +1384,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>43</v>
       </c>
@@ -1347,7 +1402,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>44</v>
       </c>
@@ -1365,7 +1420,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -1386,7 +1441,7 @@
         <v>149.9</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -1407,7 +1462,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F44">
         <f>SUM(F4:F43)</f>
         <v>1849.3300000000011</v>

--- a/Einkaufsliste.xlsx
+++ b/Einkaufsliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\GitHub\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5330DB49-3DFD-47E9-B941-A732B49F9503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FB6ECD-4C72-4359-B17E-89DC63899588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{444CD573-9474-4FB8-9721-203F73B68DDD}"/>
+    <workbookView minimized="1" xWindow="7200" yWindow="360" windowWidth="21600" windowHeight="11295" xr2:uid="{444CD573-9474-4FB8-9721-203F73B68DDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -241,9 +241,6 @@
     <t>Dämpfer</t>
   </si>
   <si>
-    <t>Flipsky FSESC 75200</t>
-  </si>
-  <si>
     <t>Flipsky</t>
   </si>
   <si>
@@ -299,6 +296,9 @@
   </si>
   <si>
     <t>innneleben und abdeckung</t>
+  </si>
+  <si>
+    <t>Flipsky FSESC 75200 Pro</t>
   </si>
 </sst>
 </file>
@@ -357,10 +357,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -679,19 +678,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9A2BD6-0D2F-4F04-93D0-99E231265F25}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -708,31 +707,31 @@
         <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -745,56 +744,56 @@
         <v>346.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>320</v>
+        <v>297.8</v>
       </c>
       <c r="F5" cm="1">
         <f t="array" ref="F5">MMULT(D5,E5)</f>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+        <v>297.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
         <v>63</v>
       </c>
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>62</v>
+      <c r="C6" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>68.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="F6" cm="1">
         <f t="array" ref="F6">MMULT(D6,E6)</f>
-        <v>68.400000000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7">
@@ -808,7 +807,7 @@
         <v>119.99</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -816,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -824,14 +823,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D10">
@@ -845,14 +844,14 @@
         <v>78.39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D11">
@@ -866,14 +865,14 @@
         <v>79.599999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D12">
@@ -887,11 +886,11 @@
         <v>5.84</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D13">
@@ -905,15 +904,15 @@
         <v>62.35</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -926,15 +925,15 @@
         <v>23.53</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
         <v>69</v>
       </c>
-      <c r="B15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>68</v>
+      <c r="C15" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -947,15 +946,15 @@
         <v>25.18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
         <v>71</v>
       </c>
-      <c r="B16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>68</v>
+      <c r="C16" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -968,19 +967,19 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D19">
@@ -994,14 +993,14 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D20">
@@ -1015,14 +1014,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D21">
@@ -1036,17 +1035,17 @@
         <v>18.95</v>
       </c>
       <c r="G21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D22">
@@ -1060,14 +1059,14 @@
         <v>11.95</v>
       </c>
       <c r="G22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D23">
@@ -1081,14 +1080,14 @@
         <v>11.95</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D24">
@@ -1102,11 +1101,11 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D25">
@@ -1120,11 +1119,11 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D26">
@@ -1138,14 +1137,14 @@
         <v>2.95</v>
       </c>
       <c r="G26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D27">
@@ -1159,14 +1158,14 @@
         <v>6.95</v>
       </c>
       <c r="G27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D28">
@@ -1180,17 +1179,17 @@
         <v>4.95</v>
       </c>
       <c r="G28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D29">
@@ -1204,17 +1203,17 @@
         <v>68.95</v>
       </c>
       <c r="G29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D30">
@@ -1228,14 +1227,14 @@
         <v>13.95</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D31">
@@ -1249,17 +1248,17 @@
         <v>54.95</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D32">
@@ -1273,17 +1272,17 @@
         <v>59.95</v>
       </c>
       <c r="G32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D33">
@@ -1297,17 +1296,17 @@
         <v>55.8</v>
       </c>
       <c r="G33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34">
@@ -1321,14 +1320,14 @@
         <v>71.8</v>
       </c>
       <c r="G34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D35">
@@ -1342,14 +1341,14 @@
         <v>9.9</v>
       </c>
       <c r="G35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D36">
@@ -1363,14 +1362,14 @@
         <v>67.8</v>
       </c>
       <c r="G36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D37">
@@ -1384,11 +1383,11 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D38">
@@ -1402,11 +1401,11 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D39">
@@ -1420,14 +1419,14 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>60</v>
       </c>
       <c r="B41" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D41">
@@ -1441,14 +1440,14 @@
         <v>149.9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>58</v>
       </c>
       <c r="B42" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D42">
@@ -1462,10 +1461,10 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F44">
         <f>SUM(F4:F43)</f>
-        <v>1849.3300000000011</v>
+        <v>1758.7300000000012</v>
       </c>
     </row>
   </sheetData>
@@ -1499,12 +1498,12 @@
     <hyperlink ref="C13" r:id="rId26" xr:uid="{1ECB1264-4DC1-40ED-85DD-614143E4155E}"/>
     <hyperlink ref="C41" r:id="rId27" xr:uid="{8F921930-28AE-447C-B607-7ED105D8654B}"/>
     <hyperlink ref="C42" r:id="rId28" xr:uid="{C61C8D99-24C5-406D-86A8-2F4CBD6E2055}"/>
-    <hyperlink ref="C5" r:id="rId29" xr:uid="{67D7384C-E530-4600-B22C-66F029B7FB9A}"/>
-    <hyperlink ref="C6" r:id="rId30" xr:uid="{6F5E5C9A-23C3-41B4-9290-E52D9850CC93}"/>
-    <hyperlink ref="C14" r:id="rId31" xr:uid="{5F000A0D-9238-4634-A225-9AE826D40A76}"/>
-    <hyperlink ref="C15" r:id="rId32" xr:uid="{FF6A06B5-21E5-47B9-8E19-C441394CFA36}"/>
-    <hyperlink ref="C16" r:id="rId33" xr:uid="{C3B39697-F125-40FF-9C0D-46E2069F9ACF}"/>
-    <hyperlink ref="C4" r:id="rId34" xr:uid="{052800D1-DC31-4B3E-BD7F-1F5925EAF95F}"/>
+    <hyperlink ref="C14" r:id="rId29" xr:uid="{5F000A0D-9238-4634-A225-9AE826D40A76}"/>
+    <hyperlink ref="C15" r:id="rId30" xr:uid="{FF6A06B5-21E5-47B9-8E19-C441394CFA36}"/>
+    <hyperlink ref="C16" r:id="rId31" xr:uid="{C3B39697-F125-40FF-9C0D-46E2069F9ACF}"/>
+    <hyperlink ref="C4" r:id="rId32" xr:uid="{052800D1-DC31-4B3E-BD7F-1F5925EAF95F}"/>
+    <hyperlink ref="C6" r:id="rId33" xr:uid="{0A49B182-2EF4-4D68-86EF-38F6CB967B3B}"/>
+    <hyperlink ref="C5" r:id="rId34" xr:uid="{2CFE2675-9AFD-4CE5-908C-1ABBCFFC2A3D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId35"/>
